--- a/biology/Zoologie/Batara_à_nuque_noire/Batara_à_nuque_noire.xlsx
+++ b/biology/Zoologie/Batara_à_nuque_noire/Batara_à_nuque_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_nuque_noire</t>
+          <t>Batara_à_nuque_noire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thamnophilus atrinucha
 Le Batara à nuque noire (Thamnophilus atrinucha) est une espèce de passereaux de la famille des Thamnophilidae (Thamnophilidés en français).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_nuque_noire</t>
+          <t>Batara_à_nuque_noire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Batara à nuque noire mesure environ 15 cm de longueur.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_nuque_noire</t>
+          <t>Batara_à_nuque_noire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_nuque_noire</t>
+          <t>Batara_à_nuque_noire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Amérique centrale à l'exception du Mexique et du Salvador et sur une grande moitié Nord de l'Amérique du Sud : Costa Rica...
 </t>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_nuque_noire</t>
+          <t>Batara_à_nuque_noire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,6 +619,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -608,7 +628,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Batara_%C3%A0_nuque_noire</t>
+          <t>Batara_à_nuque_noire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -626,7 +646,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des deux sous-espèces suivantes :
 Thamnophilus atrinucha atrinucha Salvin &amp; Godman 1892 ;
